--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H2">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I2">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J2">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>705.69909590358</v>
+        <v>15.55959614996667</v>
       </c>
       <c r="R2">
-        <v>705.69909590358</v>
+        <v>140.0363653497</v>
       </c>
       <c r="S2">
-        <v>0.2296393527145244</v>
+        <v>0.004772764349316879</v>
       </c>
       <c r="T2">
-        <v>0.2296393527145244</v>
+        <v>0.00477276434931688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H3">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I3">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J3">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>878.6198905494826</v>
+        <v>19.34975717111111</v>
       </c>
       <c r="R3">
-        <v>878.6198905494826</v>
+        <v>174.14781454</v>
       </c>
       <c r="S3">
-        <v>0.285908971853716</v>
+        <v>0.005935361708884429</v>
       </c>
       <c r="T3">
-        <v>0.285908971853716</v>
+        <v>0.00593536170888443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H4">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I4">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J4">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>643.779172171269</v>
+        <v>14.49809037167222</v>
       </c>
       <c r="R4">
-        <v>643.779172171269</v>
+        <v>130.48281334505</v>
       </c>
       <c r="S4">
-        <v>0.209490182496566</v>
+        <v>0.004447157123627512</v>
       </c>
       <c r="T4">
-        <v>0.209490182496566</v>
+        <v>0.004447157123627513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H5">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I5">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J5">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>547.2584860373706</v>
+        <v>12.47091634525556</v>
       </c>
       <c r="R5">
-        <v>547.2584860373706</v>
+        <v>112.2382471073</v>
       </c>
       <c r="S5">
-        <v>0.1780816855663409</v>
+        <v>0.003825339961415154</v>
       </c>
       <c r="T5">
-        <v>0.1780816855663409</v>
+        <v>0.003825339961415154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>16.4660569253057</v>
+        <v>0.3626166666666666</v>
       </c>
       <c r="H6">
-        <v>16.4660569253057</v>
+        <v>1.08785</v>
       </c>
       <c r="I6">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="J6">
-        <v>0.9361811869851125</v>
+        <v>0.01970077495570336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>101.598935676633</v>
+        <v>2.347752905533333</v>
       </c>
       <c r="R6">
-        <v>101.598935676633</v>
+        <v>21.1297761498</v>
       </c>
       <c r="S6">
-        <v>0.03306099435396521</v>
+        <v>0.000720151812459388</v>
       </c>
       <c r="T6">
-        <v>0.03306099435396521</v>
+        <v>0.0007201518124593882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H7">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I7">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J7">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>48.10701098500272</v>
+        <v>715.5980775175639</v>
       </c>
       <c r="R7">
-        <v>48.10701098500272</v>
+        <v>6440.382697658075</v>
       </c>
       <c r="S7">
-        <v>0.01565435314818078</v>
+        <v>0.2195031901790615</v>
       </c>
       <c r="T7">
-        <v>0.01565435314818078</v>
+        <v>0.2195031901790615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H8">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I8">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J8">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>59.8948999249971</v>
+        <v>889.9105669981333</v>
       </c>
       <c r="R8">
-        <v>59.8948999249971</v>
+        <v>8009.1951029832</v>
       </c>
       <c r="S8">
-        <v>0.01949021350532777</v>
+        <v>0.2729719580966219</v>
       </c>
       <c r="T8">
-        <v>0.01949021350532777</v>
+        <v>0.272971958096622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H9">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I9">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J9">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>43.88597333811901</v>
+        <v>666.7785910154726</v>
       </c>
       <c r="R9">
-        <v>43.88597333811901</v>
+        <v>6001.007319139253</v>
       </c>
       <c r="S9">
-        <v>0.01428079838717759</v>
+        <v>0.2045282575083548</v>
       </c>
       <c r="T9">
-        <v>0.01428079838717759</v>
+        <v>0.2045282575083548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12247951851364</v>
+        <v>16.677026</v>
       </c>
       <c r="H10">
-        <v>1.12247951851364</v>
+        <v>50.03107799999999</v>
       </c>
       <c r="I10">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793505</v>
       </c>
       <c r="J10">
-        <v>0.06381881301488745</v>
+        <v>0.9060541512793506</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>37.30622605620118</v>
+        <v>573.5472614799427</v>
       </c>
       <c r="R10">
-        <v>37.30622605620118</v>
+        <v>5161.925353319483</v>
       </c>
       <c r="S10">
-        <v>0.01213970324391385</v>
+        <v>0.1759303966411533</v>
       </c>
       <c r="T10">
-        <v>0.01213970324391385</v>
+        <v>0.1759303966411532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16.677026</v>
+      </c>
+      <c r="H11">
+        <v>50.03107799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9060541512793505</v>
+      </c>
+      <c r="J11">
+        <v>0.9060541512793506</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.474476</v>
+      </c>
+      <c r="N11">
+        <v>19.423428</v>
+      </c>
+      <c r="O11">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P11">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q11">
+        <v>107.975004588376</v>
+      </c>
+      <c r="R11">
+        <v>971.775041295384</v>
+      </c>
+      <c r="S11">
+        <v>0.03312034885415914</v>
+      </c>
+      <c r="T11">
+        <v>0.03312034885415914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.099712</v>
+      </c>
+      <c r="I12">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J12">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>42.909214</v>
+      </c>
+      <c r="N12">
+        <v>128.727642</v>
+      </c>
+      <c r="O12">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P12">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q12">
+        <v>58.63847318212267</v>
+      </c>
+      <c r="R12">
+        <v>527.7462586391041</v>
+      </c>
+      <c r="S12">
+        <v>0.01798681737010305</v>
+      </c>
+      <c r="T12">
+        <v>0.01798681737010305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.12247951851364</v>
-      </c>
-      <c r="H11">
-        <v>1.12247951851364</v>
-      </c>
-      <c r="I11">
-        <v>0.06381881301488745</v>
-      </c>
-      <c r="J11">
-        <v>0.06381881301488745</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="N11">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="O11">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="P11">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="Q11">
-        <v>6.925927981248496</v>
-      </c>
-      <c r="R11">
-        <v>6.925927981248496</v>
-      </c>
-      <c r="S11">
-        <v>0.002253744730287459</v>
-      </c>
-      <c r="T11">
-        <v>0.002253744730287459</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.099712</v>
+      </c>
+      <c r="I13">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J13">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N13">
+        <v>160.0844</v>
+      </c>
+      <c r="O13">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P13">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q13">
+        <v>72.92221507697779</v>
+      </c>
+      <c r="R13">
+        <v>656.2999356928001</v>
+      </c>
+      <c r="S13">
+        <v>0.02236822505148137</v>
+      </c>
+      <c r="T13">
+        <v>0.02236822505148137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H14">
+        <v>4.099712</v>
+      </c>
+      <c r="I14">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J14">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N14">
+        <v>119.945593</v>
+      </c>
+      <c r="O14">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P14">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q14">
+        <v>54.63804299657956</v>
+      </c>
+      <c r="R14">
+        <v>491.7423869692161</v>
+      </c>
+      <c r="S14">
+        <v>0.01675972186020242</v>
+      </c>
+      <c r="T14">
+        <v>0.01675972186020242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H15">
+        <v>4.099712</v>
+      </c>
+      <c r="I15">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J15">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N15">
+        <v>103.174378</v>
+      </c>
+      <c r="O15">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P15">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q15">
+        <v>46.9983595087929</v>
+      </c>
+      <c r="R15">
+        <v>422.985235579136</v>
+      </c>
+      <c r="S15">
+        <v>0.01441631855852668</v>
+      </c>
+      <c r="T15">
+        <v>0.01441631855852668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.366570666666667</v>
+      </c>
+      <c r="H16">
+        <v>4.099712</v>
+      </c>
+      <c r="I16">
+        <v>0.07424507376494605</v>
+      </c>
+      <c r="J16">
+        <v>0.07424507376494606</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.474476</v>
+      </c>
+      <c r="N16">
+        <v>19.423428</v>
+      </c>
+      <c r="O16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q16">
+        <v>8.847828983637335</v>
+      </c>
+      <c r="R16">
+        <v>79.63046085273601</v>
+      </c>
+      <c r="S16">
+        <v>0.002713990924632535</v>
+      </c>
+      <c r="T16">
+        <v>0.002713990924632536</v>
       </c>
     </row>
   </sheetData>
